--- a/breeding_patterns - win, sum/litters (delivery times)/Seasonal_Births_ BW _ 5 yr.xlsx
+++ b/breeding_patterns - win, sum/litters (delivery times)/Seasonal_Births_ BW _ 5 yr.xlsx
@@ -20,40 +20,40 @@
     <t xml:space="preserve">BirthSeason</t>
   </si>
   <si>
-    <t xml:space="preserve">1964-1968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1969-1973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1974-1978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1979-1983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1984-1988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1989-1993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1994-1998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1999-2003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2004-2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009-2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-2023</t>
+    <t xml:space="preserve">1963-1967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1968-1972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1973-1977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1978-1982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1983-1987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1988-1992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1993-1997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1998-2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003-2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-2022</t>
   </si>
   <si>
     <t xml:space="preserve">Summer</t>
@@ -437,40 +437,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C2" t="n">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="D2" t="n">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="E2" t="n">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="F2" t="n">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="G2" t="n">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="H2" t="n">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I2" t="n">
-        <v>227</v>
+        <v>187</v>
       </c>
       <c r="J2" t="n">
-        <v>195</v>
+        <v>239</v>
       </c>
       <c r="K2" t="n">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="L2" t="n">
-        <v>200</v>
+        <v>137</v>
       </c>
       <c r="M2" t="n">
-        <v>61</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3">
@@ -478,40 +478,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C3" t="n">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="D3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="n">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F3" t="n">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="G3" t="n">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="H3" t="n">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="I3" t="n">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="J3" t="n">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="K3" t="n">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="L3" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M3" t="n">
-        <v>60</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -574,40 +574,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C2" t="n">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="D2" t="n">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="E2" t="n">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F2" t="n">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G2" t="n">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="H2" t="n">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="I2" t="n">
-        <v>148</v>
+        <v>198</v>
       </c>
       <c r="J2" t="n">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="K2" t="n">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="L2" t="n">
         <v>121</v>
       </c>
       <c r="M2" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3">
@@ -615,40 +615,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C3" t="n">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D3" t="n">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="E3" t="n">
         <v>88</v>
       </c>
       <c r="F3" t="n">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G3" t="n">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="H3" t="n">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I3" t="n">
+        <v>235</v>
+      </c>
+      <c r="J3" t="n">
+        <v>108</v>
+      </c>
+      <c r="K3" t="n">
         <v>194</v>
       </c>
-      <c r="J3" t="n">
-        <v>136</v>
-      </c>
-      <c r="K3" t="n">
-        <v>183</v>
-      </c>
       <c r="L3" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M3" t="n">
-        <v>172</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -711,40 +711,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C2" t="n">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="D2" t="n">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="E2" t="n">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="F2" t="n">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G2" t="n">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="H2" t="n">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="J2" t="n">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="K2" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L2" t="n">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="M2" t="n">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
@@ -752,40 +752,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C3" t="n">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="D3" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E3" t="n">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F3" t="n">
+        <v>64</v>
+      </c>
+      <c r="G3" t="n">
+        <v>59</v>
+      </c>
+      <c r="H3" t="n">
+        <v>126</v>
+      </c>
+      <c r="I3" t="n">
+        <v>81</v>
+      </c>
+      <c r="J3" t="n">
+        <v>47</v>
+      </c>
+      <c r="K3" t="n">
+        <v>30</v>
+      </c>
+      <c r="L3" t="n">
         <v>57</v>
       </c>
-      <c r="G3" t="n">
-        <v>119</v>
-      </c>
-      <c r="H3" t="n">
-        <v>75</v>
-      </c>
-      <c r="I3" t="n">
-        <v>102</v>
-      </c>
-      <c r="J3" t="n">
-        <v>27</v>
-      </c>
-      <c r="K3" t="n">
-        <v>20</v>
-      </c>
-      <c r="L3" t="n">
-        <v>74</v>
-      </c>
       <c r="M3" t="n">
-        <v>47</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -848,40 +848,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C2" t="n">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="D2" t="n">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="E2" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F2" t="n">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="G2" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="H2" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I2" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="K2" t="n">
         <v>39</v>
       </c>
       <c r="L2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M2" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -889,40 +889,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C3" t="n">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D3" t="n">
+        <v>47</v>
+      </c>
+      <c r="E3" t="n">
         <v>27</v>
       </c>
-      <c r="E3" t="n">
-        <v>22</v>
-      </c>
       <c r="F3" t="n">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="G3" t="n">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="H3" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I3" t="n">
         <v>19</v>
       </c>
       <c r="J3" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K3" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L3" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M3" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
